--- a/assets/disciplinas/LOM3077.xlsx
+++ b/assets/disciplinas/LOM3077.xlsx
@@ -147,7 +147,7 @@
     <t>Requisitos:</t>
   </si>
   <si>
-    <t xml:space="preserve">LOM3094 -  Processamento de Materiais Metálicos II  (Requisito)
+    <t xml:space="preserve">LOM3094 -  Processamento de Materiais Metálicos I  (Requisito)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOM3077.xlsx
+++ b/assets/disciplinas/LOM3077.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Desenvolver a capacidade de elaborar, interpretar e executar processos de usinagem. Apresentar e discutir conceitos sobre os processos de usinagem e sobre as interações devido ao contato ferramenta-peça durante as operações de corte. Apresentar os mecanismos de desgaste e avaria além da correlação com a vida da ferramenta. Propor abordagens com enfoque nos aspectos econômicos da usinagem dos materiais. Discutir sobre as novas tendências da tecnologia da usinagem</t>
+    <t>471420 - Carlos Antonio Reis Pereira Baptista</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>471420 - Carlos Antonio Reis Pereira Baptista</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Usinagem: tipos, propriedades, processamento e aplicações. Tendências da tecnologia da usinagem.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,19 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Conteúdo teórico: 
-1. Processos mecânicos de usinagem. 
-2. Mecanismos de formação do cavaco. 
-3. Cálculo de potência de corte. 
-4. Condições econômicas de corte.
-5. Fluido de corte.
-6. Usinabilidade dos materiais.
-7. Novas tendências na usinagem dos materiais. 
-Conteúdo prático: 
-1. Trabalhos práticos em máquinas e equipamentos de usinagem.
-2. Visita a empresa de usinagem.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -116,32 +100,23 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aula expositiva com utilização de recursos audiovisuais, aliada a aulas práticas de preparação de máquinas e equipamentos de usinagem e visita a empresas.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A nota final será calculada pela média ponderada de duas provas, valendo 60% e da média de exercícios, testes práticos e relatórios de laboratório, valendo 40% da nota final.
 A fórmula para o cálculo da média será: NF = (P1+2*P2)/3*0,6 + ME*0,4, na qual P1 e P2 são as notas das provas e ME a média dos exercícios, testes e relatórios.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A recuperação será uma prova dissertativa. A média final será MF = (NF + RE)/2, na qual NF é a nota final e RE a nota da prova de recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1.SCHNEIDER, JR. G., Cutting Tool Applications. Nelson Publishing, Inc. New York, USA, 2001. 
-2.DINIZ, A.E.; MARCONDES, F.C.; COPPINI, N.L., Tecnologia da Usinagem dos Materiais. Ed. Artliber, São Paulo, 2ª ed., 2000.
-3.FERRAREZI, Dino. Fundamentos da usinagem dos metais, Edgar Blucher, 1995.
-4.ABNT - Normas Técnicas de 1995 - edição ABNT.
-5.SANDVIK COROMANT, Modern Metal Cutting. AB Sandvik Coromant, Sandviken, Sweden, 1994. 
-6.MACHADO, A. Usinagem dos metais. Uberlândia: Universidade Federal de Uberlândia, 1994.
-7.DeVRIES, W.R., Analysis of Material Removal Processes. Springer-Verlag, New York, USA, 1991.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -504,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -629,106 +604,98 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3077.xlsx
+++ b/assets/disciplinas/LOM3077.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Desenvolver a capacidade de elaborar, interpretar e executar processos de usinagem. Apresentar e discutir conceitos sobre os processos de usinagem e sobre as interações devido ao contato ferramenta-peça durante as operações de corte. Apresentar os mecanismos de desgaste e avaria além da correlação com a vida da ferramenta. Propor abordagens com enfoque nos aspectos econômicos da usinagem dos materiais. Discutir sobre as novas tendências da tecnologia da usinagem</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>471420 - Carlos Antonio Reis Pereira Baptista</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Usinagem: tipos, propriedades, processamento e aplicações. Tendências da tecnologia da usinagem.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +94,19 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Conteúdo teórico: 
+1. Processos mecânicos de usinagem. 
+2. Mecanismos de formação do cavaco. 
+3. Cálculo de potência de corte. 
+4. Condições econômicas de corte.
+5. Fluido de corte.
+6. Usinabilidade dos materiais.
+7. Novas tendências na usinagem dos materiais. 
+Conteúdo prático: 
+1. Trabalhos práticos em máquinas e equipamentos de usinagem.
+2. Visita a empresa de usinagem.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,23 +116,32 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aula expositiva com utilização de recursos audiovisuais, aliada a aulas práticas de preparação de máquinas e equipamentos de usinagem e visita a empresas.</t>
+  </si>
+  <si>
     <t>Critério:</t>
-  </si>
-  <si>
-    <t>Aula expositiva com utilização de recursos audiovisuais, aliada a aulas práticas de preparação de máquinas e equipamentos de usinagem e visita a empresas.</t>
-  </si>
-  <si>
-    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A nota final será calculada pela média ponderada de duas provas, valendo 60% e da média de exercícios, testes práticos e relatórios de laboratório, valendo 40% da nota final.
 A fórmula para o cálculo da média será: NF = (P1+2*P2)/3*0,6 + ME*0,4, na qual P1 e P2 são as notas das provas e ME a média dos exercícios, testes e relatórios.</t>
   </si>
   <si>
+    <t>Norma de recuperação:</t>
+  </si>
+  <si>
+    <t>A recuperação será uma prova dissertativa. A média final será MF = (NF + RE)/2, na qual NF é a nota final e RE a nota da prova de recuperação.</t>
+  </si>
+  <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A recuperação será uma prova dissertativa. A média final será MF = (NF + RE)/2, na qual NF é a nota final e RE a nota da prova de recuperação.</t>
+    <t>1.SCHNEIDER, JR. G., Cutting Tool Applications. Nelson Publishing, Inc. New York, USA, 2001. 
+2.DINIZ, A.E.; MARCONDES, F.C.; COPPINI, N.L., Tecnologia da Usinagem dos Materiais. Ed. Artliber, São Paulo, 2ª ed., 2000.
+3.FERRAREZI, Dino. Fundamentos da usinagem dos metais, Edgar Blucher, 1995.
+4.ABNT - Normas Técnicas de 1995 - edição ABNT.
+5.SANDVIK COROMANT, Modern Metal Cutting. AB Sandvik Coromant, Sandviken, Sweden, 1994. 
+6.MACHADO, A. Usinagem dos metais. Uberlândia: Universidade Federal de Uberlândia, 1994.
+7.DeVRIES, W.R., Analysis of Material Removal Processes. Springer-Verlag, New York, USA, 1991.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -479,13 +504,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -604,98 +629,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
